--- a/scores.xlsx
+++ b/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1783DF1-80CA-4026-8C73-A156132044FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF214A-AAEA-4FB3-9DCD-285FDFB6789D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="143">
   <si>
     <t>rest</t>
   </si>
@@ -453,6 +453,10 @@
     <t>f5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,42 +661,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="13" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,23 +705,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="13" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,13 +1019,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0DFD2-078F-4C67-894B-1D6DF1CF3A33}">
   <dimension ref="A1:J1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
@@ -1016,7 +1038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1049,7 +1071,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="20">
         <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1076,7 +1098,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1103,7 +1125,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1130,7 +1152,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1157,7 +1179,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1184,6 +1206,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1234,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -27982,7 +28007,7 @@
       </c>
     </row>
     <row r="1003" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1003" s="15"/>
+      <c r="A1003" s="21"/>
       <c r="B1003" s="11" t="s">
         <v>13</v>
       </c>
@@ -28011,7 +28036,7 @@
         <f t="shared" si="63"/>
         <v>493.99999999999977</v>
       </c>
-      <c r="J1003" s="16"/>
+      <c r="J1003" s="15"/>
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1004" s="9" t="s">
@@ -29786,31 +29811,31 @@
       </c>
     </row>
     <row r="1073" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1073" s="17" t="s">
+      <c r="B1073" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1073" s="18">
+      <c r="C1073" s="17">
         <v>1</v>
       </c>
-      <c r="D1073" s="17" t="s">
+      <c r="D1073" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E1073" s="18">
+      <c r="E1073" s="17">
         <v>1</v>
       </c>
-      <c r="F1073" s="19">
+      <c r="F1073" s="18">
         <f t="shared" si="64"/>
         <v>519.99999999999977</v>
       </c>
-      <c r="G1073" s="20">
+      <c r="G1073" s="19">
         <f t="shared" si="66"/>
         <v>520.99999999999977</v>
       </c>
-      <c r="H1073" s="19">
+      <c r="H1073" s="18">
         <f t="shared" si="65"/>
         <v>519.99999999999977</v>
       </c>
-      <c r="I1073" s="20">
+      <c r="I1073" s="19">
         <f t="shared" si="67"/>
         <v>520.99999999999977</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3D9CC-D97F-4886-9B23-6B16654657A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07EFF41-46DF-4718-B973-2B67BB52A427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="220">
   <si>
     <t>rest</t>
   </si>
@@ -762,10 +762,6 @@
     <t>d2,a2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>rest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -1328,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0DFD2-078F-4C67-894B-1D6DF1CF3A33}">
   <dimension ref="A1:I1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
-      <selection activeCell="J1062" sqref="J1062"/>
+    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="F1052" sqref="F1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30144,34 +30140,9 @@
       </c>
     </row>
     <row r="1074" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1074" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1074" s="2">
-        <v>4</v>
-      </c>
-      <c r="D1074" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1074" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1074" s="18">
-        <f t="shared" si="64"/>
-        <v>520.99999999999977</v>
-      </c>
-      <c r="G1074" s="19">
-        <f t="shared" si="66"/>
-        <v>524.99999999999977</v>
-      </c>
-      <c r="H1074" s="18">
-        <f t="shared" si="65"/>
-        <v>520.99999999999977</v>
-      </c>
-      <c r="I1074" s="19">
-        <f t="shared" si="67"/>
-        <v>524.99999999999977</v>
-      </c>
+      <c r="G1074" s="3"/>
+      <c r="H1074" s="5"/>
+      <c r="I1074" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
